--- a/arquivos/id_tecnologia_facilidades.xlsx
+++ b/arquivos/id_tecnologia_facilidades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F257064\Documents\Codes\atualizacao nfv automatico\NEW_NFV\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3D3CED-1077-4EFA-9A73-F10968C9078B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192315A-42D4-4B00-A5D4-9C70C8EAC82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>FACILIDADE</t>
   </si>
@@ -206,9 +206,6 @@
     <t>RADIO IP</t>
   </si>
   <si>
-    <t>TERCEIROS BL</t>
-  </si>
-  <si>
     <t>FO GPON_RESID ETH PV</t>
   </si>
   <si>
@@ -219,6 +216,12 @@
   </si>
   <si>
     <t>CLARO BRASIL</t>
+  </si>
+  <si>
+    <t>TERCEIRO ETH</t>
+  </si>
+  <si>
+    <t>TERCEIRO BL</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -612,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -635,7 +638,7 @@
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -658,7 +661,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -681,7 +684,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -704,7 +707,7 @@
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -724,10 +727,10 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -747,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -770,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -793,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -816,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -839,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -862,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -885,7 +888,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -908,7 +911,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16">
         <v>8</v>
@@ -931,7 +934,7 @@
         <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -954,7 +957,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -977,7 +980,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -994,10 +997,10 @@
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>8</v>
@@ -1014,10 +1017,10 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -1040,7 +1043,7 @@
         <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -1063,7 +1066,7 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -1080,7 +1083,7 @@
         <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1094,7 +1097,7 @@
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1111,7 +1114,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26">
         <v>8</v>

--- a/arquivos/id_tecnologia_facilidades.xlsx
+++ b/arquivos/id_tecnologia_facilidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F257064\Documents\Codes\atualizacao nfv automatico\NEW_NFV\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192315A-42D4-4B00-A5D4-9C70C8EAC82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B7582B-FFD6-42FE-8F37-1FECBAE2C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>4G</t>
   </si>
   <si>
-    <t>LTE (4G)</t>
-  </si>
-  <si>
     <t>ADE</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>TERCEIRO BL</t>
+  </si>
+  <si>
+    <t>LTE(4G)</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +557,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -566,16 +566,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -589,10 +589,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -603,19 +603,19 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -626,19 +626,19 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -649,19 +649,19 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -672,19 +672,19 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -695,19 +695,19 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -718,19 +718,19 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -741,16 +741,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -761,19 +761,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -784,19 +784,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -807,19 +807,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -830,19 +830,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -853,19 +853,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -876,19 +876,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -899,19 +899,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16">
         <v>8</v>
@@ -922,19 +922,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -945,19 +945,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -968,19 +968,19 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -991,16 +991,16 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20">
         <v>8</v>
@@ -1011,16 +1011,16 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -1031,19 +1031,19 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -1054,19 +1054,19 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
         <v>45</v>
       </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -1077,13 +1077,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1091,13 +1091,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1105,16 +1105,16 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26">
         <v>8</v>

--- a/arquivos/id_tecnologia_facilidades.xlsx
+++ b/arquivos/id_tecnologia_facilidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F257064\Documents\Codes\atualizacao nfv automatico\NEW_NFV\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B7582B-FFD6-42FE-8F37-1FECBAE2C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED27A31-9049-481E-87A2-0B0BCAB95F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>FACILIDADE</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>RADIO IP</t>
-  </si>
-  <si>
-    <t>FO GPON_RESID ETH PV</t>
   </si>
   <si>
     <t>BANDA KA</t>
@@ -542,7 +539,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,10 +586,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -615,7 +612,7 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -638,7 +635,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -661,7 +658,7 @@
         <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -684,7 +681,7 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -707,7 +704,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -727,10 +724,10 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -750,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -773,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -796,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -819,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -842,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -865,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -888,7 +885,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -911,7 +908,7 @@
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16">
         <v>8</v>
@@ -934,7 +931,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -957,7 +954,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -980,7 +977,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -997,10 +994,10 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20">
         <v>8</v>
@@ -1017,10 +1014,10 @@
         <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -1043,7 +1040,7 @@
         <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -1066,7 +1063,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -1083,7 +1080,7 @@
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1097,7 +1094,7 @@
         <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1114,7 +1111,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26">
         <v>8</v>
